--- a/Cuentas recaudadoras/23.12.2022/CUENTA ETV.xlsx
+++ b/Cuentas recaudadoras/23.12.2022/CUENTA ETV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/Bot5/Cuentas recaudadoras/23.12.2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_AA1A3038017B923EE464A49649B12E3E0DB9658F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCD1177F-B879-46A5-9670-295CBF8ADFA3}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_AA1A3038017B923EE464A49649B12E3E0DB9658F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{812A79F2-FB37-4692-8A46-D30499C11B58}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>CAJAS RECAUDADORAS A NIVEL NACIONAL</t>
   </si>
@@ -52,64 +52,7 @@
     <t>ETV M.N</t>
   </si>
   <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL DISALTO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL DISCRUZ</t>
-  </si>
-  <si>
-    <t>ENVIO DE RECAUDACION L-M-V</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL DISTAR</t>
-  </si>
-  <si>
     <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL COCHABAMBA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL SUCRE</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL POTOSI</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL ORURO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL TRINIDAD</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISPAZ</t>
-  </si>
-  <si>
-    <t>ETV M.E</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISALTO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISCRUZ</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISTAR</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL COCHABAMBA</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL SUCRE</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL POTOSI</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL ORURO</t>
-  </si>
-  <si>
-    <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL TRINIDAD</t>
   </si>
   <si>
     <t>*NOTA: 1) LAS AGENCIAS MUY RARA VEZ RECIBEN DOLARES, GENERALMENTE ELMOVIMIENTO DIARIO SOLAMENTE ES EN DISTRIBUIDORA</t>
@@ -128,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +107,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -336,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,10 +293,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -367,7 +300,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -376,15 +308,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,6 +336,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,15 +653,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -752,15 +679,15 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>101010101</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -772,338 +699,55 @@
       <c r="C4" s="7">
         <v>101010102</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>101020101</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7">
-        <v>101010106</v>
-      </c>
-      <c r="D5" s="21">
+        <v>101010111</v>
+      </c>
+      <c r="D5" s="18">
         <v>101020101</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
-        <v>101010107</v>
-      </c>
-      <c r="D6" s="21">
-        <v>101020101</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7">
-        <v>101010109</v>
-      </c>
-      <c r="D7" s="21">
-        <v>101020101</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="7">
-        <v>101010111</v>
-      </c>
-      <c r="D8" s="21">
-        <v>101020101</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7">
-        <v>101010114</v>
-      </c>
-      <c r="D9" s="21">
-        <v>101020101</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7">
-        <v>101010117</v>
-      </c>
-      <c r="D10" s="21">
-        <v>101020101</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7">
-        <v>101010119</v>
-      </c>
-      <c r="D11" s="21">
-        <v>101020101</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7">
-        <v>101010121</v>
-      </c>
-      <c r="D12" s="21">
-        <v>101020101</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="18">
-        <v>101010201</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7">
-        <v>101010202</v>
-      </c>
-      <c r="D14" s="21">
-        <v>101020201</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
-        <v>101010206</v>
-      </c>
-      <c r="D15" s="21">
-        <v>101020201</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7">
-        <v>101010207</v>
-      </c>
-      <c r="D16" s="21">
-        <v>101020201</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="7">
-        <v>101010209</v>
-      </c>
-      <c r="D17" s="21">
-        <v>101020201</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7">
-        <v>101010211</v>
-      </c>
-      <c r="D18" s="21">
-        <v>101020201</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="7">
-        <v>101010214</v>
-      </c>
-      <c r="D19" s="21">
-        <v>101020201</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="7">
-        <v>101010217</v>
-      </c>
-      <c r="D20" s="21">
-        <v>101020201</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="7">
-        <v>101010219</v>
-      </c>
-      <c r="D21" s="21">
-        <v>101020201</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="7">
-        <v>101010221</v>
-      </c>
-      <c r="D22" s="21">
-        <v>101020201</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
